--- a/jacobi/src/test/resources/jacobi/test/data/InverseTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/InverseTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="315" windowWidth="18195" windowHeight="7230"/>
+    <workbookView xWindow="315" yWindow="-90" windowWidth="18195" windowHeight="7230" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1x1" sheetId="8" r:id="rId1"/>
@@ -13,14 +13,17 @@
     <sheet name="4x4" sheetId="1" r:id="rId4"/>
     <sheet name="5x5" sheetId="2" r:id="rId5"/>
     <sheet name="6x6" sheetId="5" r:id="rId6"/>
-    <sheet name="rand" sheetId="3" r:id="rId7"/>
+    <sheet name="Singular 1x1" sheetId="9" r:id="rId7"/>
+    <sheet name="Singular 2x2" sheetId="10" r:id="rId8"/>
+    <sheet name="Singular 3x3" sheetId="11" r:id="rId9"/>
+    <sheet name="rand" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
   <si>
     <t>#1</t>
   </si>
@@ -374,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -426,6 +429,472 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <f ca="1">RAND()*20-5</f>
+        <v>1.0603747745339076</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:G15" ca="1" si="0">RAND()*20-5</f>
+        <v>5.8542765188323997</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.577883283534181</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.59434335595878807</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.321286848019156</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.438370327979893</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15011921260867744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <f t="shared" ref="A2:A15" ca="1" si="1">RAND()*20-5</f>
+        <v>5.4930605562178432</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.5659965654976231</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7042202878116264</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3637088288765065</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.980069217550696</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.2976412175129255E-2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.6130360421527499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43003579353637811</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9075085838638177</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3141191898971325</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.9311994544878646</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.3329985427272373</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.7361684555875465</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.543326785427034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0020309923503596</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.960411848239197</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.70825121127297</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.858602373526586</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6700208276684769</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4140560941273694</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.044561339438051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7685308385357779</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8185767980582259</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.742397804118532</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88355558625910824</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.237807636211814</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2434820759320946</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.385272093069517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.063910821510561</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6609999028215228</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0748849020346789</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.836262932242313</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.625068908158964</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.364031513164454</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.499181562217977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.522233853707998</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.888635554132509</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.040821227769346</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0433098386447899</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.719901483725053</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.129552831629105</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4044756770279676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.8661658521884679</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.7430192208245634</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5369339635617969</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.027074181085705</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.447456176974601</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6066075321594937</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.7313534443987155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.12953769684560967</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9846309597850702</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0222109081565556</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.536611774370122</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.046963187604401</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.847634193667144</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.4876077990429923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.416206703623466</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.359796147481843</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2579036692117374</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6357126579234826</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.603990018573981</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.411778239272195</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.7205935923795073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60159097424776498</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3529551929588024</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.132386793290358</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3903810909895018</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0442834523895179</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8908775784503931</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.56820012133635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.884347233951155</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5530834529026443</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.260851843500733</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9249680403000369</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7609133397693668</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.62717986487044186</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7174487576057427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.933226837774942</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26296764970648479</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0503738469902029</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5019728550961187</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3688154809955915</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0472341343175842</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.954235684347786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2909530662863489</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7867417294544303</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.54557839503218464</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.9471864234251379</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.0912490471946255</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.699215945502036</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.81845068300414603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4347046925604068</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8719830547901939</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.791214395347666</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.3148790811294182</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6208566726624856</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.891389132495558</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.31204264078122002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1587,466 +2056,149 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <f ca="1">RAND()*20-5</f>
-        <v>11.786399656014193</v>
-      </c>
-      <c r="B1">
-        <f t="shared" ref="B1:G15" ca="1" si="0">RAND()*20-5</f>
-        <v>11.303109311950845</v>
-      </c>
-      <c r="C1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.178290187060234</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.1527883591245542</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9060581894331641</v>
-      </c>
-      <c r="F1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.031694436835167</v>
-      </c>
-      <c r="G1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.478177768097343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <f t="shared" ref="A2:A15" ca="1" si="1">RAND()*20-5</f>
-        <v>4.5602160976973156</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.948579023369884</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8133386294615716</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.6735456546277909</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.409949910299119</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.3064359686190361</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9847326307643653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.033351771258253</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.8540912139994843</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3379914064946075</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1760855666845309</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3328190586027624</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9669725890846212</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.318434037882422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.14035908455733725</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.7308323984228591</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.453642019365855</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.8758441500128638</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.2860085166734541</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.0957935697894676</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.3082893291266871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0149236907286205</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.56084850466032066</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.2557263882585428</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8181135987372876</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9329605998807633</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.14153091836268228</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.90268995439266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.099729829630185</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.3735380877243575</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.8700442014929481</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.525711660533398</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.67279821449424571</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.5919203756606</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3190139761760609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.5685121769991692</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.7721240268453595</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.8236850409319425</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.2982523699158475</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8891809298851356</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.03049359708225</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.5021840431276683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.87972788325898321</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9281850208108562</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7369411417390399</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.3159093515637599</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.3386863329395804</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2567517551310026</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6720950150600125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3105222294297434</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.540997902690483</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.219809620124177</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90814963403334392</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66415111365205881</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3174876436404261</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1991583287536596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.978185011223751</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.3113743841998855</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.578882627464619</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.9342047551401631</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.946517613512647</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.1686368997661543</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.64204682614081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.735638976315629</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35931835532257139</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3153803868378873</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4727046405945146</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.749730641258886</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1304689939067147</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.0993107455750888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.867357933690652</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.758604703912916</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.045102603057074</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.424891200133374</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4719020835445873</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.10600254792917596</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1695951133155127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9346680488070973</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2870660849575035</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4603243188787154</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.4828723038342102</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5309155578313476</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.828290692600699</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8576143214651051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.493805942200976</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.219400172059249</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0297069935341643</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.631751981211561</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3981745329741937</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.45862835271776</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9841606238037972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.736950284646969</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.116963539268443</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5133636060406399</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.637478847732172</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8835425294686381</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.246000821308687</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0662621154034335</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>12.124044481424434</v>
+      </c>
+      <c r="B3">
+        <v>-2.1699917415814984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f>A3*D4</f>
+        <v>-25.665631181130635</v>
+      </c>
+      <c r="B4">
+        <f>B3*D4</f>
+        <v>4.5936987274222423</v>
+      </c>
+      <c r="D4">
+        <v>-2.1169199123653515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>-2.4649501216749026</v>
+      </c>
+      <c r="B3">
+        <v>-4.1040534679306262</v>
+      </c>
+      <c r="C3">
+        <v>-4.5295040586270137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>9.7310663926858041</v>
+      </c>
+      <c r="B4">
+        <v>7.7106946693683192</v>
+      </c>
+      <c r="C4">
+        <v>1.325337224764354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f>A4*E5</f>
+        <v>-16.239309160736116</v>
+      </c>
+      <c r="B5">
+        <f>B4*E5</f>
+        <v>-12.867690911453334</v>
+      </c>
+      <c r="C5">
+        <f>C4*E5</f>
+        <v>-2.2117371382192434</v>
+      </c>
+      <c r="E5">
+        <v>-1.6688108482069475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>